--- a/4.text/info_oiseaux.xlsx
+++ b/4.text/info_oiseaux.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\4.text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED4B87E-C9E9-480D-B455-8B536B8D4682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C7B8D8-2EFE-4D4C-AE5C-DB067B3BD604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5ABBA6FF-89A0-4776-80C4-F8D77AB0A230}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>goeland leucophee</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>début juillet</t>
+  </si>
+  <si>
+    <t>VU en France?</t>
+  </si>
+  <si>
+    <t>ou se reproduit elle ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -550,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE98D41-B309-4FC3-BF13-8D0779B05078}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +574,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -588,7 +597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -628,7 +637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -645,7 +654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -655,8 +664,14 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -669,8 +684,11 @@
       <c r="H6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -684,7 +702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,42 +728,42 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
